--- a/biology/Médecine/Hiatus_de_Winslow/Hiatus_de_Winslow.xlsx
+++ b/biology/Médecine/Hiatus_de_Winslow/Hiatus_de_Winslow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le foramen omental (ou épiploïque, anciennement hiatus de Winslow) est une zone du tube digestif découverte par le médecin français Jacob Winslow (1669-1760). C'est une fente qui permet la communication du grand sac péritonéal (la grande cavité péritonéale), située ventralement, avec le vestibule du petit sac péritonéal (l'arrière cavité des épiploons, ou bourse omentale), située en arrière du petit omentum et de l'estomac. 
 Le hiatus de Winslow est limité : 
@@ -516,7 +528,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Encyclopédie Vulgaris Médical : Hiatus de Winslow
